--- a/results/CSG/dataset_12/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/CSG/dataset_12/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -1222,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1243,7 +1243,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="O10">
         <v>115</v>
@@ -1261,16 +1261,16 @@
         <v>4.25925925925926</v>
       </c>
       <c r="T10">
-        <v>4.25925925925926</v>
+        <v>4.652173913043478</v>
       </c>
       <c r="U10">
-        <v>1.449095262358921</v>
+        <v>1.537334618532757</v>
       </c>
       <c r="V10">
-        <v>48.87442791630913</v>
+        <v>48.6413037737466</v>
       </c>
       <c r="W10">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="X10">
         <v>901</v>
@@ -1279,7 +1279,7 @@
         <v>813</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>1.004920049200492</v>
       </c>
     </row>
     <row r="11" spans="1:26">
